--- a/TUFA/tSchedule.xlsx
+++ b/TUFA/tSchedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19320" windowHeight="8640" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>周次</t>
   </si>
@@ -216,31 +216,28 @@
     <t>场序</t>
   </si>
   <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>星期四晚上踢球吗</t>
-  </si>
-  <si>
-    <t>清北人叉</t>
-  </si>
-  <si>
-    <t>裁判说得</t>
-  </si>
-  <si>
-    <t>深夜幻想</t>
-  </si>
-  <si>
-    <t>F.C XJBT 香蕉鞭挞</t>
-  </si>
-  <si>
-    <t>起什么名字都</t>
-  </si>
-  <si>
-    <t>尬</t>
-  </si>
-  <si>
-    <t>保级升班马</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
   </si>
   <si>
     <t>半决赛</t>
@@ -272,20 +269,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;-&quot;d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;-&quot;d"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,16 +292,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,9 +315,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,16 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +352,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -372,22 +407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,37 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +443,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,91 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,19 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,31 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,35 +648,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +666,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +705,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -743,155 +733,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -904,23 +894,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,11 +1221,11 @@
   <sheetPr/>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1282,7 +1260,7 @@
       <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>43022</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1294,7 +1272,7 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1309,11 +1287,11 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1326,13 +1304,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1347,11 +1325,11 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1364,13 +1342,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1385,11 +1363,11 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1404,7 +1382,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>43023</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1414,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>0.333333333333333</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1429,11 +1407,11 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1446,13 +1424,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1465,11 +1443,11 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1484,7 +1462,7 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>43029</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1496,7 +1474,7 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1511,11 +1489,11 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1528,13 +1506,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1549,11 +1527,11 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1566,7 +1544,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>28</v>
@@ -1574,7 +1552,7 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1589,11 +1567,11 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1608,7 +1586,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>43030</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1620,7 +1598,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="6">
         <v>0.333333333333333</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1635,11 +1613,11 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1652,13 +1630,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="10">
+      <c r="F20" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1671,11 +1649,11 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1690,7 +1668,7 @@
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>43036</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1702,7 +1680,7 @@
       <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1717,11 +1695,11 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1734,7 +1712,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>28</v>
@@ -1742,7 +1720,7 @@
       <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1757,11 +1735,11 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1774,7 +1752,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>22</v>
@@ -1782,7 +1760,7 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1797,11 +1775,11 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1816,7 +1794,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1"/>
-      <c r="B28" s="8">
+      <c r="B28" s="5">
         <v>43037</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1826,7 +1804,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="10">
+      <c r="F28" s="6">
         <v>0.333333333333333</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1841,11 +1819,11 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1858,13 +1836,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="10">
+      <c r="F30" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1877,11 +1855,11 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1896,7 +1874,7 @@
       <c r="A32" s="1">
         <v>7</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="5">
         <v>43043</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1908,7 +1886,7 @@
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -1923,11 +1901,11 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="10">
+      <c r="F33" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1940,13 +1918,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="10">
+      <c r="F34" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -1961,11 +1939,11 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="10">
+      <c r="F35" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -1978,7 +1956,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1"/>
-      <c r="B36" s="8">
+      <c r="B36" s="5">
         <v>43044</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1990,7 +1968,7 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="6">
         <v>0.333333333333333</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2005,11 +1983,11 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2022,13 +2000,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="10">
+      <c r="F38" s="6">
         <v>0.520833333333333</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2041,11 +2019,11 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>0.604166666666667</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2060,7 +2038,7 @@
       <c r="A40" s="1">
         <v>8</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="5">
         <v>43050</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2072,7 +2050,7 @@
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2087,11 +2065,11 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="1" t="s">
         <v>18</v>
       </c>
@@ -2104,13 +2082,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="10">
+      <c r="F42" s="6">
         <v>0.541666666666667</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2125,11 +2103,11 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="1" t="s">
         <v>12</v>
       </c>
@@ -2142,7 +2120,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1"/>
-      <c r="B44" s="8">
+      <c r="B44" s="5">
         <v>43051</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2152,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="10">
+      <c r="F44" s="6">
         <v>0.375</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2167,11 +2145,11 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2184,7 +2162,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>28</v>
@@ -2192,7 +2170,7 @@
       <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="6">
         <v>0.458333333333333</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2207,11 +2185,11 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="1" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2202,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>33</v>
@@ -2232,7 +2210,7 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="6">
         <v>0.541666666666667</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2247,11 +2225,11 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="10"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="1" t="s">
         <v>35</v>
       </c>
@@ -2266,7 +2244,7 @@
       <c r="A50" s="1">
         <v>9</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="5">
         <v>43057</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2278,7 +2256,7 @@
       <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="6">
         <v>0.375</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -2293,11 +2271,11 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
-      <c r="B51" s="8"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="10"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="1" t="s">
         <v>31</v>
       </c>
@@ -2310,7 +2288,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
-      <c r="B52" s="8"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>43</v>
@@ -2318,7 +2296,7 @@
       <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="6">
         <v>0.458333333333333</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2333,11 +2311,11 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
-      <c r="B53" s="8"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="10"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2350,13 +2328,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="10">
+      <c r="F54" s="6">
         <v>0.541666666666667</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2371,11 +2349,11 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="10"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="1" t="s">
         <v>40</v>
       </c>
@@ -2388,7 +2366,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
-      <c r="B56" s="8">
+      <c r="B56" s="5">
         <v>43058</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2398,7 +2376,7 @@
         <v>49</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="10">
+      <c r="F56" s="6">
         <v>0.416666666666667</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -2413,11 +2391,11 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
-      <c r="B57" s="8"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="10"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,13 +2408,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="10">
+      <c r="F58" s="6">
         <v>0.541666666666667</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -2451,11 +2429,11 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
-      <c r="B59" s="8"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="10"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,7 +2448,7 @@
       <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="5">
         <v>43064</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2482,7 +2460,7 @@
       <c r="E60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="6">
         <v>0.541666666666667</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -2497,7 +2475,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
-      <c r="B61" s="8">
+      <c r="B61" s="5">
         <v>43065</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2625,16 +2603,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="15.7" customWidth="1"/>
-    <col min="8" max="8" width="14.9" customWidth="1"/>
+    <col min="1" max="16384" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2665,494 +2642,361 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>43232</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="5"/>
+      <c r="F3" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="5">
+        <v>43233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="5"/>
+      <c r="F5" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B2" s="7">
-        <v>42866</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B6" s="5">
+        <v>43239</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="5"/>
+      <c r="F7" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="5">
+        <v>43240</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="5"/>
+      <c r="F9" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>43246</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="5">
+        <v>43247</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43253</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1">
         <v>13</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7">
-        <v>42868</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7">
-        <v>42869</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7">
-        <v>42873</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5">
-        <v>0.635416666666667</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
-        <v>42875</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5">
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="5"/>
+      <c r="F15" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7">
-        <v>42876</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7">
-        <v>42883</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8">
-        <v>42889</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43261</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="5">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5"/>
+      <c r="F25" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+  <mergeCells count="30">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -3174,13 +3018,11 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="I2:I16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3197,7 +3039,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3236,11 +3078,11 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
@@ -3248,11 +3090,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2"/>
@@ -3260,11 +3102,11 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2"/>
@@ -3272,11 +3114,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
@@ -3284,11 +3126,11 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
@@ -3296,11 +3138,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
@@ -3308,11 +3150,11 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>
@@ -3320,11 +3162,11 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2"/>
@@ -3332,11 +3174,11 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2"/>
@@ -3344,11 +3186,11 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2"/>
@@ -3356,11 +3198,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2"/>
@@ -3368,11 +3210,11 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
@@ -3380,11 +3222,11 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2"/>
@@ -3392,11 +3234,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
@@ -3404,11 +3246,11 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2"/>
@@ -3416,11 +3258,11 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2"/>
@@ -3428,11 +3270,11 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2"/>
@@ -3440,11 +3282,11 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2"/>
@@ -3452,11 +3294,11 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2"/>
@@ -3464,11 +3306,11 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2"/>
@@ -3476,11 +3318,11 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2"/>
@@ -3488,11 +3330,11 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2"/>
@@ -3500,11 +3342,11 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2"/>
@@ -3512,11 +3354,11 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2"/>
@@ -3524,11 +3366,11 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2"/>
@@ -3536,11 +3378,11 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2"/>
@@ -3548,11 +3390,11 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2"/>
@@ -3560,11 +3402,11 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2"/>
@@ -3572,11 +3414,11 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2"/>
@@ -3584,11 +3426,11 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2"/>
@@ -3596,11 +3438,11 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2"/>
@@ -3608,11 +3450,11 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2"/>
@@ -3620,11 +3462,11 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2"/>
@@ -3632,11 +3474,11 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2"/>
@@ -3644,11 +3486,11 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2"/>
@@ -3656,383 +3498,383 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
